--- a/Design-Development_Phase_Plan.xlsx
+++ b/Design-Development_Phase_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Nauka\FIRST-WEB-PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Nauka\FIRST-WEB-PROJECT\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E6EBC-6DF2-43F7-9AB4-3513B5B0F2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCB57E0-AA70-4B29-B80F-18B1FDEDC4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E62C51B-7182-49F8-9C76-CABCCB918DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E62C51B-7182-49F8-9C76-CABCCB918DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG-TIME SPENT ON WHAT" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FUNCTIONALITY!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3781,7 +3780,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,6 +3882,9 @@
       </c>
       <c r="D8" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="F8" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
